--- a/UUV case/eplison/epsilon-1213.xlsx
+++ b/UUV case/eplison/epsilon-1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>acc</t>
   </si>
@@ -24,18 +24,21 @@
   <si>
     <t>eneergy</t>
   </si>
+  <si>
+    <t>0121 configure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,36 +50,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,14 +77,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -104,61 +84,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +113,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -180,16 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,55 +200,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,127 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,11 +394,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,47 +433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -495,20 +456,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,139 +514,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,10 +969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G6:J26"/>
+  <dimension ref="G6:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J26"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1011,7 +1010,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="7:10">
+    <row r="11" spans="7:18">
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
         <v>0</v>
@@ -1022,8 +1021,16 @@
       <c r="J11" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="7:10">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="7:18">
       <c r="G12" s="1">
         <v>1e-7</v>
       </c>
@@ -1036,8 +1043,20 @@
       <c r="J12" s="2">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="13" spans="7:10">
+      <c r="M12" s="3"/>
+      <c r="N12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="7:18">
       <c r="G13" s="1">
         <v>5e-7</v>
       </c>
@@ -1050,8 +1069,22 @@
       <c r="J13" s="2">
         <v>0.946666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="7:10">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.617777777777778</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.268888888888889</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="7:18">
       <c r="G14" s="1">
         <v>1e-6</v>
       </c>
@@ -1064,8 +1097,22 @@
       <c r="J14" s="2">
         <v>0.868888888888889</v>
       </c>
-    </row>
-    <row r="15" spans="7:10">
+      <c r="M14" s="5">
+        <v>1e-10</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.171497584541063</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.036231884057971</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="7:18">
       <c r="G15" s="1">
         <v>5e-6</v>
       </c>
@@ -1078,8 +1125,22 @@
       <c r="J15" s="2">
         <v>0.426666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="7:10">
+      <c r="M15" s="5">
+        <v>5e-10</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.171497584541063</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="7:18">
       <c r="G16" s="1">
         <v>1e-5</v>
       </c>
@@ -1092,8 +1153,22 @@
       <c r="J16" s="2">
         <v>0.317777777777778</v>
       </c>
-    </row>
-    <row r="17" spans="7:10">
+      <c r="M16" s="5">
+        <v>1e-9</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.171497584541063</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="7:18">
       <c r="G17" s="1">
         <v>5e-5</v>
       </c>
@@ -1106,8 +1181,22 @@
       <c r="J17" s="2">
         <v>0.204444444444444</v>
       </c>
-    </row>
-    <row r="18" spans="7:10">
+      <c r="M17" s="5">
+        <v>5e-9</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="7:18">
       <c r="G18" s="2">
         <v>0.0001</v>
       </c>
@@ -1120,8 +1209,22 @@
       <c r="J18" s="2">
         <v>0.153333333333333</v>
       </c>
-    </row>
-    <row r="19" spans="7:10">
+      <c r="M18" s="5">
+        <v>1e-8</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="7:18">
       <c r="G19" s="2">
         <v>0.0005</v>
       </c>
@@ -1134,8 +1237,22 @@
       <c r="J19" s="2">
         <v>0.0955555555555556</v>
       </c>
-    </row>
-    <row r="20" spans="7:10">
+      <c r="M19" s="5">
+        <v>5e-8</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.159420289855072</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="7:18">
       <c r="G20" s="2">
         <v>0.001</v>
       </c>
@@ -1148,8 +1265,22 @@
       <c r="J20" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="7:10">
+      <c r="M20" s="5">
+        <v>1e-7</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.157004830917874</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="7:18">
       <c r="G21" s="2">
         <v>0.005</v>
       </c>
@@ -1162,8 +1293,22 @@
       <c r="J21" s="2">
         <v>0.0244444444444444</v>
       </c>
-    </row>
-    <row r="22" spans="7:10">
+      <c r="M21" s="5">
+        <v>5e-7</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.157004830917874</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="7:18">
       <c r="G22" s="2">
         <v>0.01</v>
       </c>
@@ -1176,8 +1321,22 @@
       <c r="J22" s="2">
         <v>0.0177777777777778</v>
       </c>
-    </row>
-    <row r="23" spans="7:10">
+      <c r="M22" s="5">
+        <v>1e-6</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.157004830917874</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="7:18">
       <c r="G23" s="2">
         <v>0.05</v>
       </c>
@@ -1190,8 +1349,22 @@
       <c r="J23" s="2">
         <v>0.00888888888888889</v>
       </c>
-    </row>
-    <row r="24" spans="7:10">
+      <c r="M23" s="5">
+        <v>5e-6</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.152173913043478</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="7:18">
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
@@ -1204,8 +1377,22 @@
       <c r="J24" s="2">
         <v>0.00453514739229025</v>
       </c>
-    </row>
-    <row r="25" spans="7:10">
+      <c r="M24" s="5">
+        <v>1e-5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.152173913043478</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.0314009661835749</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="7:18">
       <c r="G25" s="2">
         <v>0.5</v>
       </c>
@@ -1218,8 +1405,22 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="7:10">
+      <c r="M25" s="5">
+        <v>5e-5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.51207729468599</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.152173913043478</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.0169082125603865</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="7:18">
       <c r="G26" s="2">
         <v>1</v>
       </c>
@@ -1232,6 +1433,148 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
+      <c r="M26" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.520987654320988</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.150617283950617</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.0148148148148148</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="13:18">
+      <c r="M27" s="5">
+        <v>0.0005</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.520987654320988</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.150617283950617</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.00987654320987654</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="13:18">
+      <c r="M28" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.520987654320988</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.150617283950617</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.00987654320987654</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="13:18">
+      <c r="M29" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.525252525252525</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.151515151515152</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="13:18">
+      <c r="M30" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.525252525252525</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.148989898989899</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="13:18">
+      <c r="M31" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.510582010582011</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.116402116402116</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.00793650793650794</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="13:18">
+      <c r="M32" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.464912280701754</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.119883040935673</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.0087719298245614</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="13:18">
+      <c r="M33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.396825396825397</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.0476190476190476</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="13:18">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UUV case/eplison/epsilon-1213.xlsx
+++ b/UUV case/eplison/epsilon-1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>acc</t>
   </si>
@@ -27,18 +27,21 @@
   <si>
     <t>0121 configure</t>
   </si>
+  <si>
+    <t>0122 configure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,7 +51,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,53 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,53 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -183,11 +193,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,114 +210,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,72 +391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +401,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,39 +460,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,17 +495,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -496,15 +506,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,142 +524,153 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,15 +990,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G6:R34"/>
+  <dimension ref="G6:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="8" max="10" width="12.8571428571429"/>
+    <col min="19" max="21" width="12.8571428571429"/>
+    <col min="24" max="25" width="12.8571428571429"/>
+    <col min="26" max="26" width="11.7142857142857"/>
   </cols>
   <sheetData>
     <row r="6" spans="7:10">
@@ -1010,7 +1034,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="7:18">
+    <row r="11" spans="7:19">
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
         <v>0</v>
@@ -1029,8 +1053,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="7:18">
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="7:26">
       <c r="G12" s="1">
         <v>1e-7</v>
       </c>
@@ -1055,8 +1082,27 @@
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="7:18">
+      <c r="S12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="7:26">
       <c r="G13" s="1">
         <v>5e-7</v>
       </c>
@@ -1072,19 +1118,42 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>0.617777777777778</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>0.4</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>0.268888888888889</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="7:18">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.417562724014337</v>
+      </c>
+      <c r="T13">
+        <v>0.299283154121864</v>
+      </c>
+      <c r="U13">
+        <v>0.209677419354839</v>
+      </c>
+      <c r="W13" s="7">
+        <v>1e-30</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.413978494623656</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0.252688172043011</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.145161290322581</v>
+      </c>
+    </row>
+    <row r="14" spans="7:26">
       <c r="G14" s="1">
         <v>1e-6</v>
       </c>
@@ -1097,22 +1166,45 @@
       <c r="J14" s="2">
         <v>0.868888888888889</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>1e-10</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>0.171497584541063</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>0.036231884057971</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="7:18">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="8">
+        <v>1e-20</v>
+      </c>
+      <c r="S14">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="T14">
+        <v>0.173160173160173</v>
+      </c>
+      <c r="U14">
+        <v>0.0670995670995671</v>
+      </c>
+      <c r="W14" s="7">
+        <v>1e-25</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.429924242424242</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0.202651515151515</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.071969696969697</v>
+      </c>
+    </row>
+    <row r="15" spans="7:26">
       <c r="G15" s="1">
         <v>5e-6</v>
       </c>
@@ -1125,22 +1217,45 @@
       <c r="J15" s="2">
         <v>0.426666666666667</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>5e-10</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>0.171497584541063</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="7:18">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="8">
+        <v>1e-19</v>
+      </c>
+      <c r="S15">
+        <v>0.407657657657658</v>
+      </c>
+      <c r="T15">
+        <v>0.18018018018018</v>
+      </c>
+      <c r="U15">
+        <v>0.0698198198198198</v>
+      </c>
+      <c r="W15" s="7">
+        <v>1e-20</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.173160173160173</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.0670995670995671</v>
+      </c>
+    </row>
+    <row r="16" spans="7:26">
       <c r="G16" s="1">
         <v>1e-5</v>
       </c>
@@ -1153,22 +1268,45 @@
       <c r="J16" s="2">
         <v>0.317777777777778</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>1e-9</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>0.171497584541063</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="7:18">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="8">
+        <v>1e-18</v>
+      </c>
+      <c r="S16">
+        <v>0.405092592592593</v>
+      </c>
+      <c r="T16">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="U16">
+        <v>0.0694444444444445</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1e-15</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.408602150537634</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.196236559139785</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.0698924731182796</v>
+      </c>
+    </row>
+    <row r="17" spans="7:26">
       <c r="G17" s="1">
         <v>5e-5</v>
       </c>
@@ -1181,22 +1319,45 @@
       <c r="J17" s="2">
         <v>0.204444444444444</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>5e-9</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>0.166666666666667</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="7:18">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="8">
+        <v>1e-17</v>
+      </c>
+      <c r="S17">
+        <v>0.413978494623656</v>
+      </c>
+      <c r="T17">
+        <v>0.196236559139785</v>
+      </c>
+      <c r="U17">
+        <v>0.0698924731182796</v>
+      </c>
+      <c r="W17" s="9">
+        <v>1e-10</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.185185185185185</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.0291005291005291</v>
+      </c>
+    </row>
+    <row r="18" spans="7:26">
       <c r="G18" s="2">
         <v>0.0001</v>
       </c>
@@ -1209,22 +1370,45 @@
       <c r="J18" s="2">
         <v>0.153333333333333</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>1e-8</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <v>0.166666666666667</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="7:18">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="8">
+        <v>1e-16</v>
+      </c>
+      <c r="S18">
+        <v>0.408602150537634</v>
+      </c>
+      <c r="T18">
+        <v>0.196236559139785</v>
+      </c>
+      <c r="U18">
+        <v>0.0698924731182796</v>
+      </c>
+      <c r="W18" s="9">
+        <v>1e-5</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="19" spans="7:26">
       <c r="G19" s="2">
         <v>0.0005</v>
       </c>
@@ -1237,22 +1421,45 @@
       <c r="J19" s="2">
         <v>0.0955555555555556</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>5e-8</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>0.159420289855072</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="7:18">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="8">
+        <v>1e-15</v>
+      </c>
+      <c r="S19">
+        <v>0.408602150537634</v>
+      </c>
+      <c r="T19">
+        <v>0.196236559139785</v>
+      </c>
+      <c r="U19">
+        <v>0.0698924731182796</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.0001</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="20" spans="7:26">
       <c r="G20" s="2">
         <v>0.001</v>
       </c>
@@ -1265,22 +1472,36 @@
       <c r="J20" s="2">
         <v>0.08</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>1e-7</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="2">
         <v>0.157004830917874</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="7:18">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="8">
+        <v>1e-14</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="21" spans="7:26">
       <c r="G21" s="2">
         <v>0.005</v>
       </c>
@@ -1293,22 +1514,36 @@
       <c r="J21" s="2">
         <v>0.0244444444444444</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>5e-7</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <v>0.157004830917874</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="7:18">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="8">
+        <v>1e-13</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0.396825396825397</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.0132275132275132</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26">
       <c r="G22" s="2">
         <v>0.01</v>
       </c>
@@ -1321,22 +1556,36 @@
       <c r="J22" s="2">
         <v>0.0177777777777778</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>1e-6</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <v>0.157004830917874</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="7:18">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="8">
+        <v>1e-12</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.353658536585366</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0.16260162601626</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.0121951219512195</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26">
       <c r="G23" s="2">
         <v>0.05</v>
       </c>
@@ -1349,22 +1598,45 @@
       <c r="J23" s="2">
         <v>0.00888888888888889</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>5e-6</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <v>0.152173913043478</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="7:18">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="8">
+        <v>1e-11</v>
+      </c>
+      <c r="S23">
+        <v>0.408602150537634</v>
+      </c>
+      <c r="T23">
+        <v>0.190860215053763</v>
+      </c>
+      <c r="U23">
+        <v>0.0510752688172043</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26">
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
@@ -1377,22 +1649,45 @@
       <c r="J24" s="2">
         <v>0.00453514739229025</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>1e-5</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <v>0.152173913043478</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="2">
         <v>0.0314009661835749</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="7:18">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="4">
+        <v>1e-10</v>
+      </c>
+      <c r="S24">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T24">
+        <v>0.185185185185185</v>
+      </c>
+      <c r="U24">
+        <v>0.0291005291005291</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:22">
       <c r="G25" s="2">
         <v>0.5</v>
       </c>
@@ -1405,22 +1700,34 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>5e-5</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="2">
         <v>0.51207729468599</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <v>0.152173913043478</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="2">
         <v>0.0169082125603865</v>
       </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="7:18">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="4">
+        <v>1e-9</v>
+      </c>
+      <c r="S25">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T25">
+        <v>0.174603174603175</v>
+      </c>
+      <c r="U25">
+        <v>0.0264550264550265</v>
+      </c>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="7:21">
       <c r="G26" s="2">
         <v>1</v>
       </c>
@@ -1433,134 +1740,222 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>0.0001</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <v>0.520987654320988</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="2">
         <v>0.150617283950617</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="2">
         <v>0.0148148148148148</v>
       </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="13:18">
-      <c r="M27" s="5">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="4">
+        <v>1e-8</v>
+      </c>
+      <c r="S26">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T26">
+        <v>0.134920634920635</v>
+      </c>
+      <c r="U26">
+        <v>0.0211640211640212</v>
+      </c>
+    </row>
+    <row r="27" spans="13:21">
+      <c r="M27" s="4">
         <v>0.0005</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="2">
         <v>0.520987654320988</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="2">
         <v>0.150617283950617</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="2">
         <v>0.00987654320987654</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="13:18">
-      <c r="M28" s="5">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="4">
+        <v>1e-7</v>
+      </c>
+      <c r="S27">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T27">
+        <v>0.132275132275132</v>
+      </c>
+      <c r="U27">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="28" spans="13:21">
+      <c r="M28" s="4">
         <v>0.001</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="2">
         <v>0.520987654320988</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="2">
         <v>0.150617283950617</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="2">
         <v>0.00987654320987654</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="13:18">
-      <c r="M29" s="5">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="4">
+        <v>1e-6</v>
+      </c>
+      <c r="S28">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T28">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="U28">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="29" spans="13:21">
+      <c r="M29" s="4">
         <v>0.005</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="2">
         <v>0.525252525252525</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="2">
         <v>0.151515151515152</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="2">
         <v>0.0101010101010101</v>
       </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="13:18">
-      <c r="M30" s="5">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="4">
+        <v>1e-5</v>
+      </c>
+      <c r="S29">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T29">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="U29">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="30" spans="13:21">
+      <c r="M30" s="4">
         <v>0.01</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="2">
         <v>0.525252525252525</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="2">
         <v>0.148989898989899</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="2">
         <v>0.0101010101010101</v>
       </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="13:18">
-      <c r="M31" s="5">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="4">
+        <v>0.0001</v>
+      </c>
+      <c r="S30">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T30">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="U30">
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="31" spans="13:21">
+      <c r="M31" s="4">
         <v>0.05</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="2">
         <v>0.510582010582011</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="2">
         <v>0.116402116402116</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="2">
         <v>0.00793650793650794</v>
       </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="13:18">
-      <c r="M32" s="5">
+      <c r="Q31" s="2"/>
+      <c r="R31" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="S31">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="T31">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="U31">
+        <v>0.0158730158730159</v>
+      </c>
+    </row>
+    <row r="32" spans="13:21">
+      <c r="M32" s="4">
         <v>0.1</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="2">
         <v>0.464912280701754</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="2">
         <v>0.119883040935673</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="2">
         <v>0.0087719298245614</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="13:18">
-      <c r="M33" s="5">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="S32">
+        <v>0.396825396825397</v>
+      </c>
+      <c r="T32">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="U32">
+        <v>0.0132275132275132</v>
+      </c>
+    </row>
+    <row r="33" spans="13:21">
+      <c r="M33" s="4">
         <v>0.5</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="2">
         <v>0.396825396825397</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="2">
         <v>0.0476190476190476</v>
       </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="13:18">
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S33">
+        <v>0.353658536585366</v>
+      </c>
+      <c r="T33">
+        <v>0.16260162601626</v>
+      </c>
+      <c r="U33">
+        <v>0.0121951219512195</v>
+      </c>
+    </row>
+    <row r="34" spans="13:21">
       <c r="M34" s="3">
         <v>0</v>
       </c>
@@ -1573,8 +1968,33 @@
       <c r="P34" s="2">
         <v>0</v>
       </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="T34">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="18:21">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
